--- a/Civilworks cost/Expenditure_2016_17/Input output/output.xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/output.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -25,12 +20,12 @@
     <sheet name="mobilization_original_input" sheetId="11" r:id="rId11"/>
     <sheet name="civil_expenditure_list" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="137">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -92,40 +87,49 @@
     <t>Voucher No</t>
   </si>
   <si>
-    <t>126/Kish-02 1st Bill</t>
+    <t>126/|KISH-02 1st Bill</t>
   </si>
   <si>
-    <t>149/Kish-07 1st Bill</t>
+    <t>149/|KISH-07 1st Bill</t>
   </si>
   <si>
-    <t>152/Kish-02 .. Bill</t>
+    <t>152/|KISH-02 .. Bill</t>
   </si>
   <si>
-    <t>176/Kish-13 1st Bill</t>
+    <t>176/|KISH-13 1st Bill</t>
   </si>
   <si>
-    <t>197/Kish-14 1st Bill</t>
+    <t>197/|KISH-14 1st Bill</t>
   </si>
   <si>
-    <t>198/Kish-5 1st Bill</t>
+    <t>198/|KISH-5 1st Bill</t>
   </si>
   <si>
-    <t>201/Kish-6 1st Bill</t>
+    <t>201/|KISH-6 1st Bill</t>
   </si>
   <si>
-    <t>234/Kish-13 2nd Bill</t>
+    <t>227/|KISH/HFMLIP/02</t>
   </si>
   <si>
-    <t>241/Kish-07 2nd Bill</t>
+    <t>228/|KISH-04 1st Bill</t>
   </si>
   <si>
-    <t>242/Kish-03 1st Bill</t>
+    <t>234/|KISH-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/|KISH-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/|KISH-03 1st Bill</t>
   </si>
   <si>
     <t xml:space="preserve">KISH-02 </t>
   </si>
   <si>
     <t>KISH-07</t>
+  </si>
+  <si>
+    <t>KISH-02</t>
   </si>
   <si>
     <t>KISH-13</t>
@@ -138,6 +142,9 @@
   </si>
   <si>
     <t>KISH-06</t>
+  </si>
+  <si>
+    <t>KISH-04</t>
   </si>
   <si>
     <t>KISH-03</t>
@@ -207,12 +214,6 @@
   </si>
   <si>
     <t>KISH-01</t>
-  </si>
-  <si>
-    <t>KISH-02</t>
-  </si>
-  <si>
-    <t>KISH-04</t>
   </si>
   <si>
     <t>KISH-09</t>
@@ -350,7 +351,40 @@
     <t>GT-03</t>
   </si>
   <si>
-    <t>152/Kish-02  Bill</t>
+    <t>126/Kish-02 1st Bill</t>
+  </si>
+  <si>
+    <t>149/Kish-07 1st Bill</t>
+  </si>
+  <si>
+    <t>152/Kish-02 .. Bill</t>
+  </si>
+  <si>
+    <t>176/Kish-13 1st Bill</t>
+  </si>
+  <si>
+    <t>197/Kish-14 1st Bill</t>
+  </si>
+  <si>
+    <t>198/Kish-5 1st Bill</t>
+  </si>
+  <si>
+    <t>201/Kish-6 1st Bill</t>
+  </si>
+  <si>
+    <t>227/Kish/HFMLIP/02</t>
+  </si>
+  <si>
+    <t>228/Kish-04 1st Bill</t>
+  </si>
+  <si>
+    <t>234/Kish-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/Kish-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/Kish-03 1st Bill</t>
   </si>
   <si>
     <t>id</t>
@@ -389,6 +423,12 @@
     <t>2017-05-28</t>
   </si>
   <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t>2017-06-18</t>
+  </si>
+  <si>
     <t>2017-06-19</t>
   </si>
   <si>
@@ -401,8 +441,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,14 +505,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -519,7 +551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -551,10 +583,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,7 +617,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,16 +792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -850,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9871121</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9871121</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -886,10 +914,10 @@
         <v>8785298</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -898,12 +926,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -948,13 +976,13 @@
         <v>1138308</v>
       </c>
       <c r="Q3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -963,12 +991,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -980,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14978253</v>
+        <v>9868708.600000001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -995,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5109544.399999999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1010,16 +1038,16 @@
         <v>14978253</v>
       </c>
       <c r="P4">
-        <v>888885.20880000002</v>
+        <v>1787580.2088</v>
       </c>
       <c r="Q4">
-        <v>13108924.531199999</v>
+        <v>13108925.3612</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -1028,12 +1056,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1045,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14259856</v>
+        <v>2111691.57</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1060,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12148164.43</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1075,13 +1103,13 @@
         <v>14259856</v>
       </c>
       <c r="P5">
-        <v>1801319.6532000001</v>
+        <v>1801319.9332</v>
       </c>
       <c r="Q5">
-        <v>12021358.456800001</v>
+        <v>12021358.1768</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1093,12 +1121,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1146,7 +1174,7 @@
         <v>3647296</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -1158,12 +1186,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1175,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>6397963.39</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1190,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9280540</v>
+        <v>2882576.61</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1211,7 +1239,7 @@
         <v>8166875</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1223,12 +1251,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1243,7 +1271,7 @@
         <v>4132973.5</v>
       </c>
       <c r="G8">
-        <v>6195366.8830000004</v>
+        <v>6195366.883</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1267,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10328340.382999999</v>
+        <v>10328340.383</v>
       </c>
       <c r="P8">
         <v>1239401</v>
@@ -1276,7 +1304,7 @@
         <v>9088939</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -1288,7 +1316,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1320,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2555298.56</v>
+        <v>4262665.35</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1332,16 +1360,16 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2555298.56</v>
+        <v>4262665.35</v>
       </c>
       <c r="P9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="Q9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -1350,10 +1378,10 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>12499297</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1385,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>967951</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1397,28 +1425,28 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>967951</v>
+        <v>12499297</v>
       </c>
       <c r="P10">
-        <v>116154</v>
+        <v>1624908.62</v>
       </c>
       <c r="Q10">
-        <v>851797</v>
+        <v>10874388.38</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>6</v>
       </c>
       <c r="U10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1435,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2963861</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1450,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2323597</v>
+        <v>2555298.56</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1462,24 +1490,154 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5287458</v>
+        <v>2555298.56</v>
       </c>
       <c r="P11">
-        <v>556858.13199999998</v>
+        <v>332188.8</v>
       </c>
       <c r="Q11">
-        <v>4083625.9679999999</v>
+        <v>2223109.76</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>6</v>
       </c>
       <c r="U11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>967951</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>967951</v>
+      </c>
+      <c r="P12">
+        <v>116154</v>
+      </c>
+      <c r="Q12">
+        <v>851797</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2963861</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>4026070.88</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>6989931.880000001</v>
+      </c>
+      <c r="P13">
+        <v>556858.132</v>
+      </c>
+      <c r="Q13">
+        <v>4083625.968</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
         <v>242</v>
       </c>
     </row>
@@ -1489,14 +1647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1552,7 +1710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1569,13 +1727,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8785298</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8785298</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1599,10 +1757,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -1611,12 +1769,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1631,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1655,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -1670,12 +1828,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -1687,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13134764.83</v>
+        <v>8662906.620000001</v>
       </c>
       <c r="G4">
         <v>43637.88</v>
@@ -1702,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2460.3000000000002</v>
+        <v>4474319.35</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1714,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13180863.01</v>
+        <v>13180863.85</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -1729,12 +1887,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1746,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12184786.050000001</v>
+        <v>1943627.95</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1761,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>221288.95999999999</v>
+        <v>10462446.78</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1773,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12406075.01</v>
+        <v>12406074.73</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1788,12 +1946,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1835,7 +1993,7 @@
         <v>3647296</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1847,12 +2005,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1864,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5630207.65</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1879,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8166875</v>
+        <v>2536667.35</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1894,7 +2052,7 @@
         <v>8166875</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -1906,12 +2064,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1926,7 +2084,7 @@
         <v>3637016.47</v>
       </c>
       <c r="G8">
-        <v>5451922.5300000003</v>
+        <v>5451922.53</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1953,7 +2111,7 @@
         <v>9088939</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1965,7 +2123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1997,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -2009,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2021,10 +2179,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2041,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10874388.38</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2056,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>851797</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -2068,22 +2226,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>10874388.38</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2100,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2417500.75</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2115,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2235462.2400000002</v>
+        <v>2223109.76</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2127,18 +2285,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4652962.99</v>
+        <v>2223109.76</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>851797</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>851797</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1859975.72</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2792987.28</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4652963</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -2148,14 +2424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +2493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2225,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2258,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2270,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>2</v>
@@ -2282,49 +2558,49 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
@@ -2335,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>3</v>
@@ -2347,63 +2623,63 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
-        <v>81748.259999999995</v>
+        <v>81748.25999999999</v>
       </c>
       <c r="P4">
-        <v>9809.7911999999997</v>
+        <v>9809.7912</v>
       </c>
       <c r="Q4">
-        <v>71938.468800000002</v>
+        <v>71938.4688</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>3</v>
@@ -2412,60 +2688,60 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
       </c>
       <c r="O5">
         <v>437177.89</v>
       </c>
       <c r="P5">
-        <v>52461.346799999999</v>
+        <v>52461.3468</v>
       </c>
       <c r="Q5">
-        <v>384716.54320000001</v>
+        <v>384716.5432</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -2477,49 +2753,49 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
@@ -2530,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -2542,49 +2818,49 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -2595,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -2607,49 +2883,49 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -2660,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S8">
         <v>1</v>
@@ -2672,7 +2948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2680,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2713,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2725,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -2734,10 +3010,10 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2745,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2778,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2790,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>6</v>
       </c>
       <c r="U10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2810,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2843,27 +3119,157 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>646973.9</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>77636.868000000002</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>569337.03200000001</v>
+        <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>6</v>
       </c>
       <c r="U11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>646973.9</v>
+      </c>
+      <c r="P13">
+        <v>77636.868</v>
+      </c>
+      <c r="Q13">
+        <v>569337.032</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
         <v>242</v>
       </c>
     </row>
@@ -2873,24 +3279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2899,16 +3303,16 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2925,16 +3329,16 @@
         <v>9871121</v>
       </c>
       <c r="G2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I2">
         <v>9672</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2945,48 +3349,48 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="F3">
-        <v>9580757</v>
+        <v>9485898</v>
       </c>
       <c r="G3">
         <v>681</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I3">
         <v>9695</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>892408.89</v>
+        <v>1181305.11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13134764.83</v>
+        <v>8662906.620000001</v>
       </c>
       <c r="F4">
-        <v>14027173.720000001</v>
+        <v>9844211.73</v>
       </c>
       <c r="G4">
         <v>680</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I4">
         <v>9698</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3006,91 +3410,91 @@
         <v>681</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I5">
         <v>9698</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>335.49</v>
+        <v>610134.27</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2460.3000000000002</v>
+        <v>4474319.35</v>
       </c>
       <c r="F6">
-        <v>2795.79</v>
+        <v>5084453.619999999</v>
       </c>
       <c r="G6">
         <v>685</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I6">
         <v>9698</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1823605.23</v>
+        <v>289036.67</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12184786.050000001</v>
+        <v>1943627.95</v>
       </c>
       <c r="F7">
-        <v>14008391.279999999</v>
+        <v>2232664.62</v>
       </c>
       <c r="G7">
         <v>680</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I7">
         <v>9722</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>30175.77</v>
+        <v>1564744.61</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>221288.95999999999</v>
+        <v>10462446.78</v>
       </c>
       <c r="F8">
-        <v>251464.73</v>
+        <v>12027191.39</v>
       </c>
       <c r="G8">
         <v>685</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I8">
         <v>9722</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3110,191 +3514,269 @@
         <v>685</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I9">
         <v>9744</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1113665</v>
+        <v>767755.74</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8166875</v>
+        <v>5630207.65</v>
       </c>
       <c r="F10">
-        <v>9280540</v>
+        <v>6397963.390000001</v>
       </c>
       <c r="G10">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="I10">
         <v>9745</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>495956.88</v>
+        <v>345909.26</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>3637016.47</v>
+        <v>2536667.35</v>
       </c>
       <c r="F11">
-        <v>4132973.35</v>
+        <v>2882576.61</v>
       </c>
       <c r="G11">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="I11">
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>743444.12</v>
+        <v>495956.88</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5451922.5300000003</v>
+        <v>3637016.47</v>
       </c>
       <c r="F12">
-        <v>6195366.6500000004</v>
+        <v>4132973.35</v>
       </c>
       <c r="G12">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I12">
         <v>9748</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>332188.81</v>
+        <v>743444.12</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2223109.7400000002</v>
+        <v>5451922.53</v>
       </c>
       <c r="F13">
-        <v>2555298.5499999998</v>
+        <v>6195366.65</v>
       </c>
       <c r="G13">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I13">
-        <v>9781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="F14">
-        <v>967951</v>
+        <v>4262665.34</v>
       </c>
       <c r="G14">
         <v>685</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I14">
-        <v>9788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>329659.21999999997</v>
+        <v>1624908.62</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2417500.75</v>
+        <v>10874388.38</v>
       </c>
       <c r="F15">
-        <v>2747159.97</v>
+        <v>12499297</v>
       </c>
       <c r="G15">
         <v>680</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="I15">
-        <v>9789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>304835.78000000003</v>
+        <v>332188.8</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2235462.2400000002</v>
+        <v>2223109.76</v>
       </c>
       <c r="F16">
-        <v>2540298.02</v>
+        <v>2555298.56</v>
       </c>
       <c r="G16">
         <v>685</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I16">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>116154</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>851797</v>
+      </c>
+      <c r="F17">
+        <v>967951</v>
+      </c>
+      <c r="G17">
+        <v>681</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>253633.08</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1859975.72</v>
+      </c>
+      <c r="F18">
+        <v>2113608.8</v>
+      </c>
+      <c r="G18">
+        <v>680</v>
+      </c>
+      <c r="H18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>380861.93</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2792987.28</v>
+      </c>
+      <c r="F19">
+        <v>3173849.21</v>
+      </c>
+      <c r="G19">
+        <v>685</v>
+      </c>
+      <c r="H19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19">
         <v>9789</v>
       </c>
     </row>
@@ -3304,14 +3786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3384,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3414,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -3426,12 +3908,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -3473,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -3485,12 +3967,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -3502,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.658869135138791</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3517,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3411308648612091</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3532,10 +4014,10 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -3544,12 +4026,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -3561,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.1480864582363244</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -3576,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8519135417636756</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -3591,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3603,12 +4085,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -3650,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3662,12 +4144,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -3679,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.6893955944373926</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3694,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.3106044055626074</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3709,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -3721,12 +4203,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -3738,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.40015852951580633</v>
+        <v>0.4001585295158063</v>
       </c>
       <c r="G8">
-        <v>0.59984147048419367</v>
+        <v>0.5998414704841937</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -3768,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -3780,7 +4262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3827,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -3836,10 +4318,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3856,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -3871,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3886,19 +4368,19 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3915,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.56054554003076718</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -3930,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.43945445996923288</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3945,15 +4427,133 @@
         <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.4240185814228564</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.5759814185771436</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -3963,14 +4563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4043,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8785298</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>8785298</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4073,10 +4673,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -4085,12 +4685,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4105,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -4129,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -4144,12 +4744,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -4161,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13108924.529999999</v>
+        <v>8637066.32</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4176,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4471859.05</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4188,13 +4788,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13108924.529999999</v>
+        <v>13108925.37</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -4203,12 +4803,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -4220,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12021358.460000001</v>
+        <v>1780200.36</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4235,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10241157.82</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4247,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12021358.460000001</v>
+        <v>12021358.18</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4262,12 +4862,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -4309,7 +4909,7 @@
         <v>3647296</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4321,12 +4921,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4338,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5630207.65</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4353,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8166875</v>
+        <v>2536667.35</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4368,7 +4968,7 @@
         <v>8166875</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4380,12 +4980,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -4400,7 +5000,7 @@
         <v>3637016.47</v>
       </c>
       <c r="G8">
-        <v>5451922.5300000003</v>
+        <v>5451922.53</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4427,7 +5027,7 @@
         <v>9088939</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4439,7 +5039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4471,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -4483,10 +5083,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -4495,10 +5095,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4515,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>10874388.38</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4530,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>851797</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -4542,22 +5142,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>10874388.38</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4574,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2289058.3199999998</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4589,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1794567.64</v>
+        <v>2223109.76</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -4601,18 +5201,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4083625.96</v>
+        <v>2223109.76</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>851797</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>851797</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1731533.29</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2352092.68</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4083625.97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -4622,14 +5340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +5403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4702,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1085823</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1085823</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4732,10 +5450,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -4744,12 +5462,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -4791,10 +5509,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -4803,12 +5521,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -4820,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>888885.21</v>
+        <v>1177781.43</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4835,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>609798.78</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -4847,13 +5565,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>888885.21</v>
+        <v>1787580.21</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -4862,12 +5580,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -4879,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1801319.65</v>
+        <v>266751.09</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -4894,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1534568.84</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -4906,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1801319.65</v>
+        <v>1801319.93</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4921,12 +5639,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -4968,7 +5686,7 @@
         <v>497358</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4980,12 +5698,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4997,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>767755.74</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -5012,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1113665</v>
+        <v>345909.26</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -5027,7 +5745,7 @@
         <v>1113665</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5039,12 +5757,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -5086,7 +5804,7 @@
         <v>1239401</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5098,7 +5816,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5130,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -5142,10 +5860,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -5154,10 +5872,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5174,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1624908.62</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5189,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>116154</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -5201,22 +5919,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>1624908.62</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5233,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>312144.34000000003</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -5248,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>244713.79</v>
+        <v>332188.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -5260,18 +5978,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>556858.13</v>
+        <v>332188.8</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>116154</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>116154</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>236118.2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>320739.94</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>556858.14</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -5281,87 +6117,87 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5427,18 +6263,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2873403.21</v>
       </c>
       <c r="D3">
-        <v>1974708.21</v>
+        <v>468893.18</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5495,18 +6331,18 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>1974708.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3342296.39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>556858.13</v>
+        <v>556858.14</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5566,18 +6402,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>556858.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>556858.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1624908.62</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -5637,15 +6473,15 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1624908.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>1113665</v>
@@ -5711,12 +6547,12 @@
         <v>1113665</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>1239401</v>
@@ -5782,15 +6618,15 @@
         <v>1239401</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1138308</v>
       </c>
       <c r="D8">
         <v>116154</v>
@@ -5808,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1138308</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5853,12 +6689,12 @@
         <v>1254462</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -5924,12 +6760,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -5995,12 +6831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -6066,12 +6902,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -6137,18 +6973,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>1801319.65</v>
+        <v>1801319.93</v>
       </c>
       <c r="D13">
-        <v>332188.81</v>
+        <v>332188.8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6205,15 +7041,15 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>2133508.46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2133508.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>497358</v>
@@ -6279,12 +7115,12 @@
         <v>497358</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -6350,12 +7186,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -6421,12 +7257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -6492,12 +7328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -6563,12 +7399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -6634,12 +7470,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -6705,12 +7541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -6776,12 +7612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -6847,12 +7683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -6918,12 +7754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -6989,12 +7825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -7060,12 +7896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -7131,12 +7967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -7202,12 +8038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -7273,12 +8109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -7344,12 +8180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -7415,12 +8251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -7486,12 +8322,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -7557,12 +8393,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7628,12 +8464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7699,12 +8535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7770,12 +8606,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -7841,12 +8677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -7912,12 +8748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -7983,12 +8819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8054,12 +8890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -8125,12 +8961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -8196,12 +9032,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -8267,12 +9103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -8338,12 +9174,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -8409,12 +9245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -8480,12 +9316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -8551,12 +9387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -8622,12 +9458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -8693,12 +9529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -8764,12 +9600,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -8835,12 +9671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -8906,12 +9742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -8977,12 +9813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -9048,12 +9884,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -9119,12 +9955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -9196,87 +10032,87 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -9342,18 +10178,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>21894223.37</v>
       </c>
       <c r="D3">
-        <v>21894222.530000001</v>
+        <v>3793772.16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -9410,18 +10246,18 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>21894222.530000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+        <v>25687995.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>4083625.96</v>
+        <v>4083625.97</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -9481,18 +10317,18 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>4083625.96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4083625.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10874388.38</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -9552,15 +10388,15 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>10874388.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>8166875</v>
@@ -9626,12 +10462,12 @@
         <v>8166875</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>9088939</v>
@@ -9697,15 +10533,15 @@
         <v>9088939</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8347590</v>
       </c>
       <c r="D8">
         <v>851797</v>
@@ -9723,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8442449</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -9765,15 +10601,15 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>9294246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9199387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -9839,12 +10675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -9910,12 +10746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -9981,12 +10817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10052,18 +10888,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>12021358.460000001</v>
+        <v>12021358.18</v>
       </c>
       <c r="D13">
-        <v>2223109.7400000002</v>
+        <v>2223109.76</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -10120,15 +10956,15 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>14244468.199999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>14244467.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>3647296</v>
@@ -10194,12 +11030,12 @@
         <v>3647296</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -10265,12 +11101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -10336,12 +11172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -10407,12 +11243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10478,12 +11314,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10549,12 +11385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -10620,12 +11456,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10691,12 +11527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -10762,12 +11598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -10833,12 +11669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -10904,12 +11740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -10975,12 +11811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -11046,12 +11882,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -11117,12 +11953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -11188,12 +12024,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -11259,12 +12095,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -11330,12 +12166,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -11401,12 +12237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11472,12 +12308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -11543,12 +12379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -11614,12 +12450,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -11685,12 +12521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -11756,12 +12592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -11827,12 +12663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -11898,12 +12734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -11969,12 +12805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -12040,12 +12876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -12111,12 +12947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -12182,12 +13018,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -12253,12 +13089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -12324,12 +13160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -12395,12 +13231,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -12466,12 +13302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -12537,12 +13373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -12608,12 +13444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -12679,12 +13515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -12750,12 +13586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -12821,12 +13657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -12892,12 +13728,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -12963,12 +13799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -13034,12 +13870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -13111,14 +13947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13174,7 +14010,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13221,10 +14057,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -13233,12 +14069,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -13280,10 +14116,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -13292,12 +14128,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -13336,13 +14172,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>888885.21</v>
+        <v>1787580.21</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -13351,12 +14187,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -13395,10 +14231,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1801319.65</v>
+        <v>1801319.93</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -13410,12 +14246,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -13457,7 +14293,7 @@
         <v>497358</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -13469,12 +14305,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -13516,7 +14352,7 @@
         <v>1113665</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -13528,12 +14364,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -13575,7 +14411,7 @@
         <v>1239401</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -13587,7 +14423,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13631,10 +14467,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -13643,10 +14479,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13690,22 +14526,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>1624908.62</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -13722,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17514.88</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -13737,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>60121.99</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -13749,18 +14585,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>556858.13</v>
+        <v>332188.8</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>116154</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>17514.88</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>60121.99</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>556858.14</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -13770,14 +14724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13833,7 +14787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13880,10 +14834,10 @@
         <v>8785298</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -13892,12 +14846,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -13936,13 +14890,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -13951,12 +14905,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -13983,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2460.3000000000002</v>
+        <v>2460.3</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -13995,13 +14949,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13108924.529999999</v>
+        <v>13108925.37</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -14010,12 +14964,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -14042,7 +14996,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>221288.95999999999</v>
+        <v>221288.96</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -14054,10 +15008,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12021358.460000001</v>
+        <v>12021358.18</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -14069,12 +15023,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -14116,7 +15070,7 @@
         <v>3647296</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -14128,12 +15082,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -14175,7 +15129,7 @@
         <v>8166875</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -14187,12 +15141,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -14234,7 +15188,7 @@
         <v>9088939</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -14246,7 +15200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14290,10 +15244,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2223109.7400000002</v>
+        <v>3793772.16</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -14302,10 +15256,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14349,22 +15303,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>851797</v>
+        <v>10874388.38</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14381,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>128442.43</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -14396,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>440894.6</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -14408,18 +15362,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4083625.96</v>
+        <v>2223109.76</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>851797</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>128442.43</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>440894.6</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4083625.97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
@@ -14429,14 +15501,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14492,7 +15564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14509,13 +15581,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1085823</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1085823</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -14539,10 +15611,10 @@
         <v>1085823</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -14551,12 +15623,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -14598,10 +15670,10 @@
         <v>1138308</v>
       </c>
       <c r="P3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>3</v>
@@ -14610,12 +15682,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
@@ -14627,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>892408.89</v>
+        <v>1181305.11</v>
       </c>
       <c r="G4">
         <v>5950.62</v>
@@ -14642,7 +15714,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>335.49</v>
+        <v>610134.27</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -14654,13 +15726,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>898695</v>
+        <v>1797390</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>3</v>
@@ -14669,12 +15741,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -14686,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1823605.23</v>
+        <v>289036.67</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -14701,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30175.77</v>
+        <v>1564744.61</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -14713,10 +15785,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1853781</v>
+        <v>1853781.28</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -14728,12 +15800,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -14775,7 +15847,7 @@
         <v>497358</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -14787,12 +15859,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -14804,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>767755.74</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -14819,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1113665</v>
+        <v>345909.26</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -14834,7 +15906,7 @@
         <v>1113665</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -14846,12 +15918,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -14893,7 +15965,7 @@
         <v>1239401</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -14905,7 +15977,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -14937,7 +16009,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -14949,10 +16021,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>332188.81</v>
+        <v>468893.18</v>
       </c>
       <c r="P9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -14961,10 +16033,10 @@
         <v>6</v>
       </c>
       <c r="S9">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -14981,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1624908.62</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -14996,7 +16068,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>116154</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -15008,22 +16080,22 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>116154</v>
+        <v>1624908.62</v>
       </c>
       <c r="P10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>6</v>
       </c>
       <c r="S10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15040,7 +16112,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>329659.21999999997</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -15055,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>304835.78000000003</v>
+        <v>332188.8</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -15067,18 +16139,136 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>634495</v>
+        <v>332188.8</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>6</v>
       </c>
       <c r="S11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>116154</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>116154</v>
+      </c>
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>253633.08</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>380861.93</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>634495.01</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
         <v>242</v>
       </c>
     </row>
